--- a/Team-Data/2007-08/3-11-2007-08.xlsx
+++ b/Team-Data/2007-08/3-11-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-3</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -789,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -989,13 +1056,13 @@
         <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1132,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1141,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1153,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU4" t="n">
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1180,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
         <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="S5" t="n">
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V5" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
         <v>7.7</v>
@@ -1278,34 +1345,34 @@
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AA5" t="n">
         <v>21.7</v>
       </c>
-      <c r="AA5" t="n">
-        <v>21.6</v>
-      </c>
       <c r="AB5" t="n">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1320,13 +1387,13 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
         <v>16</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1335,19 +1402,19 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>9</v>
@@ -1359,10 +1426,10 @@
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1487,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1499,7 +1566,7 @@
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF7" t="n">
         <v>9</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8</v>
       </c>
       <c r="AG7" t="n">
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>16</v>
@@ -2048,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2081,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2215,7 +2282,7 @@
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>14</v>
@@ -2245,7 +2312,7 @@
         <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>5.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2421,7 +2488,7 @@
         <v>27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR11" t="n">
         <v>10</v>
@@ -2448,7 +2515,7 @@
         <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
         <v>39</v>
       </c>
       <c r="G12" t="n">
-        <v>0.391</v>
+        <v>0.381</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
@@ -2516,25 +2583,25 @@
         <v>24.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O12" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
         <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
         <v>22.7</v>
@@ -2543,28 +2610,28 @@
         <v>15.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AA12" t="n">
         <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2597,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2615,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
@@ -2624,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-5.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2809,7 +2876,7 @@
         <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.703</v>
+        <v>0.698</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
         <v>82.59999999999999</v>
@@ -2874,19 +2941,19 @@
         <v>0.479</v>
       </c>
       <c r="L14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.375</v>
+        <v>0.373</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="Q14" t="n">
         <v>0.762</v>
@@ -2895,16 +2962,16 @@
         <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W14" t="n">
         <v>8.199999999999999</v>
@@ -2916,19 +2983,19 @@
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,16 +3019,16 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2982,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2994,10 +3061,10 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="n">
-        <v>0.238</v>
+        <v>0.242</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3050,43 +3117,43 @@
         <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M15" t="n">
         <v>21.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O15" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S15" t="n">
         <v>30.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V15" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W15" t="n">
         <v>6.1</v>
@@ -3101,16 +3168,16 @@
         <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3122,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3134,7 +3201,7 @@
         <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3155,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
@@ -3170,10 +3237,10 @@
         <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3185,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3352,7 +3419,7 @@
         <v>18</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>0.359</v>
+        <v>0.365</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.449</v>
@@ -3423,10 +3490,10 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
@@ -3438,19 +3505,19 @@
         <v>0.742</v>
       </c>
       <c r="R17" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S17" t="n">
         <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U17" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -3459,7 +3526,7 @@
         <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="n">
         <v>21.4</v>
@@ -3474,7 +3541,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
@@ -3531,19 +3598,19 @@
         <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ17" t="n">
         <v>17</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="n">
-        <v>0.222</v>
+        <v>0.226</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J18" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O18" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S18" t="n">
         <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
         <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
@@ -3647,16 +3714,16 @@
         <v>23.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>-7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,16 +3762,16 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
@@ -3713,7 +3780,7 @@
         <v>22</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3883,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>6</v>
@@ -4047,7 +4114,7 @@
         <v>5</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
         <v>2</v>
@@ -4062,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>14</v>
@@ -4071,7 +4138,7 @@
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4229,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
@@ -4244,7 +4311,7 @@
         <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS21" t="n">
         <v>23</v>
@@ -4277,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4632,10 +4699,10 @@
         <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.656</v>
+        <v>0.651</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="J24" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.494</v>
+        <v>0.492</v>
       </c>
       <c r="L24" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O24" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P24" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T24" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U24" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="V24" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W24" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X24" t="n">
         <v>6.8</v>
@@ -4736,34 +4803,34 @@
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.6</v>
+        <v>109.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4781,10 +4848,10 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4811,10 +4878,10 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.523</v>
+        <v>0.516</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
@@ -4885,16 +4952,16 @@
         <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P25" t="n">
         <v>23.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S25" t="n">
         <v>29.8</v>
@@ -4918,22 +4985,22 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4954,7 +5021,7 @@
         <v>18</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
@@ -4966,7 +5033,7 @@
         <v>22</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
         <v>12</v>
@@ -4975,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
@@ -4999,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5142,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5163,7 +5230,7 @@
         <v>28</v>
       </c>
       <c r="AU26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV26" t="n">
         <v>29</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>5</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J28" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="N28" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="O28" t="n">
         <v>17.6</v>
@@ -5440,13 +5507,13 @@
         <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
         <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="U28" t="n">
         <v>21.6</v>
@@ -5458,7 +5525,7 @@
         <v>6.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
         <v>5.4</v>
@@ -5470,13 +5537,13 @@
         <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC28" t="n">
         <v>-7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5518,7 +5585,7 @@
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5542,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" t="n">
         <v>34</v>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.54</v>
+        <v>0.548</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,7 +5665,7 @@
         <v>38.1</v>
       </c>
       <c r="J29" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K29" t="n">
         <v>0.466</v>
@@ -5607,7 +5674,7 @@
         <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N29" t="n">
         <v>0.406</v>
@@ -5619,7 +5686,7 @@
         <v>20.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R29" t="n">
         <v>9.800000000000001</v>
@@ -5640,25 +5707,25 @@
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA29" t="n">
         <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" t="n">
         <v>42</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.646</v>
+        <v>0.656</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.496</v>
+        <v>0.497</v>
       </c>
       <c r="L30" t="n">
         <v>4.6</v>
@@ -5792,34 +5859,34 @@
         <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R30" t="n">
         <v>11.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
@@ -5828,28 +5895,28 @@
         <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AA30" t="n">
         <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5873,7 +5940,7 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP30" t="n">
         <v>3</v>
@@ -5885,10 +5952,10 @@
         <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5900,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY30" t="n">
         <v>25</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n">
         <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.492</v>
+        <v>0.484</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O31" t="n">
         <v>19.3</v>
@@ -5983,7 +6050,7 @@
         <v>24.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="R31" t="n">
         <v>12.4</v>
@@ -5992,19 +6059,19 @@
         <v>29.7</v>
       </c>
       <c r="T31" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U31" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V31" t="n">
         <v>13.6</v>
       </c>
       <c r="W31" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
@@ -6016,13 +6083,13 @@
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,19 +6104,19 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN31" t="n">
         <v>23</v>
@@ -6073,13 +6140,13 @@
         <v>15</v>
       </c>
       <c r="AU31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV31" t="n">
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>8</v>
@@ -6088,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-11-2007-08</t>
+          <t>2008-03-11</t>
         </is>
       </c>
     </row>
